--- a/medicine/Mort/Cimetière_d'Aigues-Vives/Cimetière_d'Aigues-Vives.xlsx
+++ b/medicine/Mort/Cimetière_d'Aigues-Vives/Cimetière_d'Aigues-Vives.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_d%27Aigues-Vives</t>
+          <t>Cimetière_d'Aigues-Vives</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière d'Aigues-Vives est le cimetière municipal de la ville d'Aigues-Vives (Gard) dans le Midi de la France. Il se trouve route de Calvisson.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_d%27Aigues-Vives</t>
+          <t>Cimetière_d'Aigues-Vives</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Histoire et description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce petit cimetière gardois typique avec ses tombes et chapelles (surtout protestantes) de pierre blonde et ses hauts cyprès est un lieu propice pour le recueillement[1] à l'écart du bourg. On y trouve des tombes de notabilités locales et la sépulture de l'ancien président de la Troisième République, Gaston Doumergue (1863-1937), originaire d'Aigues-Vives et de confession protestante.
-Une scène de Une table en Provence, série télévisée allemande de la ZDF, y a été tournée en juin 2019[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce petit cimetière gardois typique avec ses tombes et chapelles (surtout protestantes) de pierre blonde et ses hauts cyprès est un lieu propice pour le recueillement à l'écart du bourg. On y trouve des tombes de notabilités locales et la sépulture de l'ancien président de la Troisième République, Gaston Doumergue (1863-1937), originaire d'Aigues-Vives et de confession protestante.
+Une scène de Une table en Provence, série télévisée allemande de la ZDF, y a été tournée en juin 2019.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_d%27Aigues-Vives</t>
+          <t>Cimetière_d'Aigues-Vives</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,11 +557,13 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Jean Bosc (1924-1973), dessinateur humoristique
 Gaston Doumergue (1863-1937), président de la République française de 1924 à 1931
-Émile Jamais (1856-1893), préfet du Gard et sous-secrétaire d'État aux colonies (grande chapelle ouverte)[3]
+Émile Jamais (1856-1893), préfet du Gard et sous-secrétaire d'État aux colonies (grande chapelle ouverte)
 Sully-André Peyre (1890-1961), poète félibre</t>
         </is>
       </c>
